--- a/biology/Botanique/Palaquium_gutta/Palaquium_gutta.xlsx
+++ b/biology/Botanique/Palaquium_gutta/Palaquium_gutta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Palaquium gutta est une espèce de plantes à fleurs de la famille des Sapotaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète spécifique gutta vient du mot malais getah qui signifie sève ou latex. Il est connu en Indonésie sous le nom de karet oblong. C'est principalement avec cet arbre qu'est fabriqué la gutta-percha[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique gutta vient du mot malais getah qui signifie sève ou latex. Il est connu en Indonésie sous le nom de karet oblong. C'est principalement avec cet arbre qu'est fabriqué la gutta-percha.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été décrite pour la première fois en 1847 par William Jackson Hooker[3]. L'espèce possède de nombreux synonymes[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite pour la première fois en 1847 par William Jackson Hooker. L'espèce possède de nombreux synonymes,.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Palaquium gutta est un arbre qui peut atteindre 40 mètres de haut. L'écorce est d'un brun rougeâtre. Les inflorescences portent jusqu'à 12 fleurs. Les fruits sont ronds ou ellipsoïdes, parfois brunâtres et tomenteux, ils mesurent jusqu'à 2,5 centimètres de long[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Palaquium gutta est un arbre qui peut atteindre 40 mètres de haut. L'écorce est d'un brun rougeâtre. Les inflorescences portent jusqu'à 12 fleurs. Les fruits sont ronds ou ellipsoïdes, parfois brunâtres et tomenteux, ils mesurent jusqu'à 2,5 centimètres de long.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les graines sont utilisées pour fabriquer du savon et des bougies, et parfois en cuisine. Le latex est utilisé pour la fabrication de la gutta-percha[2]. Le bois est exploité et commercialisé sous le nom de nyatoh.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les graines sont utilisées pour fabriquer du savon et des bougies, et parfois en cuisine. Le latex est utilisé pour la fabrication de la gutta-percha. Le bois est exploité et commercialisé sous le nom de nyatoh.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Habitat et Distribution géographique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre est originaire de Sumatra, de la Malaisie péninsulaire, de Singapour et de Bornéo. Il pousse au milieu de forêts mixtes de Dipterocarpaceae, et de forêts calcaires.
 </t>
@@ -666,7 +688,9 @@
           <t>Menaces et protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Palaquium gutta a été évalué comme « quasi menacé » sur la liste rouge de l'UICN. La menace la plus importante pour l'espèce est la déforestation, notamment à Bornéo par la conversion des terres à la culture du palmier à huile.
 </t>
